--- a/test planning/Test Planning ClearTrip Search Page_Aradhana_Shinde.xlsx
+++ b/test planning/Test Planning ClearTrip Search Page_Aradhana_Shinde.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P1345360\eclipse-workspace\ClearTrip\test planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F7F982-C178-42A3-B145-C26D88C7C5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DDC7B1-9713-4F2E-AD53-66E9FB6BFD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BC35887B-994E-4CD8-BA69-E01669A120EF}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="414">
   <si>
     <t>S/n</t>
   </si>
@@ -1262,6 +1262,326 @@
   </si>
   <si>
     <t>User should be able to click on the "Other Economic Hotels" rating checkbox.</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC021</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC022</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC023</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC024</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC025</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC026</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the "Filter by hotel" label is visible </t>
+  </si>
+  <si>
+    <t>User should be able to view the "Filter by hotel" label</t>
+  </si>
+  <si>
+    <t>Verify and validate the textbox for Filter by Hotel label is visible and editable</t>
+  </si>
+  <si>
+    <t>1.Navigate to mentioned URL.
+2.Enter data in "Where to?" to textbox .
+3.Pick a date from checkin date picker.
+4.Pick a date from checkout date picker.
+5. Select number of Adults.
+6.Select number of children and there age.
+7.Select number of rooms
+8.Click on "Search Hotels" button
+9.Click on "Filter by hotel" textbox.
+10.Enter  data "Lemon Tree"in textbox</t>
+  </si>
+  <si>
+    <t>1.Locality : Chennai.
+2.Checkin: 8 Nov.
+3.Checkout : 13 Nov
+4.Room : 1
+5. Adults :2
+6.Filter by Hotel textbox: Lemon Tree</t>
+  </si>
+  <si>
+    <t>User should be able to view the textbox and should be able to enter the valid data.</t>
+  </si>
+  <si>
+    <t>Verify when user enters Hotel name the Filter by Hotel textbox shows suggestion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to view the list  of suggestion  </t>
+  </si>
+  <si>
+    <t>Verify the "Total Price" label is visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Locality : Chennai.
+2.Checkin: 8 Nov.
+3.Checkout : 13 Nov
+4.Room : 1
+5. Adults :2
+</t>
+  </si>
+  <si>
+    <t>User should be able to view the "Total price" label.</t>
+  </si>
+  <si>
+    <t>Verify the downarrow for "Total price " label is visible and clickable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to mentioned URL.
+2.Enter data in "Where to?" to textbox .
+3.Pick a date from checkin date picker.
+4.Pick a date from checkout date picker.
+5. Select number of Adults.
+6.Select number of children and there age.
+7.Select number of rooms
+8.Click on "Search Hotels" button
+9.Click on arrow 
+</t>
+  </si>
+  <si>
+    <t>User should be able to view and click on the down arrow of "Total Price " label.</t>
+  </si>
+  <si>
+    <t>Verify when clicked on down arrow it displays slider and two spinbutton with min and max resp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to view the slider and two spin button </t>
+  </si>
+  <si>
+    <t>Verify and validate the spin button are clickable</t>
+  </si>
+  <si>
+    <t>User should be able to click on the spin button of both min and max</t>
+  </si>
+  <si>
+    <t>1.Navigate to Modify Search page.
+2.Click on the spin button of min and max.</t>
+  </si>
+  <si>
+    <t>1.Navigate to Modify Search page.
+2.Click on arrow of "Total Price" label.</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC028</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC029</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC030</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC031</t>
+  </si>
+  <si>
+    <t>Verify the textbox for "Total Price" label are editable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to mentioned URL.
+2.Enter data in "Where to?" to textbox .
+3.Pick a date from checkin date picker.
+4.Pick a date from checkout date picker.
+5. Select number of Adults.
+6.Select number of children and there age.
+7.Select number of rooms
+8.Click on "Search Hotels" button
+</t>
+  </si>
+  <si>
+    <t>1.Navigate to Modify Search page.
+2.Enter price in textbox</t>
+  </si>
+  <si>
+    <t>Validate the slider for Total price label</t>
+  </si>
+  <si>
+    <t>User should be able to write and edit the data both in textbox</t>
+  </si>
+  <si>
+    <t>User should be able to operate the slider.</t>
+  </si>
+  <si>
+    <t>1.Navigate to Modify Search page.
+2.Click on slider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify "Special Offers" label </t>
+  </si>
+  <si>
+    <t>User should be able to view "Special Offers" label.</t>
+  </si>
+  <si>
+    <t>1.Navigate to Modify Search page.
+2.Click on dropdown arrow</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC032</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC033</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC034</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC035</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC036</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC037</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC038</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC039</t>
+  </si>
+  <si>
+    <t>Verify and validate the dropdown arrow is visible and clickable for "Special Offers" filter.</t>
+  </si>
+  <si>
+    <t>User should  able to view and  click on the dropdown arrow of Special offers label</t>
+  </si>
+  <si>
+    <t>Verify the dropdown for "Special offers " shows two filters "Hotels with deals" and "Free Cancellation"</t>
+  </si>
+  <si>
+    <t>User should be able to view the filters "Hotels with deals" and "Free Cancellation".</t>
+  </si>
+  <si>
+    <t>1.Navigate to Modify Search page.
+2.Click on dropdown arrow
+3.Click on the check box</t>
+  </si>
+  <si>
+    <t>User should be able to view and click on the check box for "Hotels with  deals" filter.</t>
+  </si>
+  <si>
+    <t>Verfiy and validate the "Hotels with deals" filter have check box and is clickable</t>
+  </si>
+  <si>
+    <t>Verfiy and validate the "Free Cancellation" filter have check box and is clickable</t>
+  </si>
+  <si>
+    <t>User should be able to view and click on the check box for "Free Cancellation" filter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify "TripAdvisor Rating" label </t>
+  </si>
+  <si>
+    <t>User should be able to view "TripAdvisor" label</t>
+  </si>
+  <si>
+    <t>Verify the dropdown arrow for "TripAdvisor Rating " label is visible and clickable</t>
+  </si>
+  <si>
+    <t>User should be to view and click on the dropdown arrow</t>
+  </si>
+  <si>
+    <t>Verify the dropdown for"TripAdvisor Rating" shows 4sub filters.</t>
+  </si>
+  <si>
+    <t>When user clicks on the dropdown, 4 sub filters should be visible to user</t>
+  </si>
+  <si>
+    <t>Verify the drop down for"TripAdvisor Rating " shows "4.5 &amp;above" filter</t>
+  </si>
+  <si>
+    <t>When user clicks on the dropdown "4.5&amp;above " filter should be visible .</t>
+  </si>
+  <si>
+    <t>Verify the "4.5&amp;above" filter has check box and it is clickable</t>
+  </si>
+  <si>
+    <t>User should be able to view on the checkbox</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC040</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC041</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC042</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC043</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC044</t>
+  </si>
+  <si>
+    <t>Verify the "4&amp;above" filter has check box and it is clickable</t>
+  </si>
+  <si>
+    <t>Verify the drop down for"TripAdvisor Rating " shows "4 &amp;above" filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to Modify Search page.
+2.Click on dropdown arrow
+</t>
+  </si>
+  <si>
+    <t>User should be able to view the "4&amp;above" filter.</t>
+  </si>
+  <si>
+    <t>Verify the drop down for"TripAdvisor Rating " shows "3.5 &amp;above" filter</t>
+  </si>
+  <si>
+    <t>User should be able to view the "3.5&amp;above" filter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to Modify Search page.
+2.Click on dropdown arrow
+3.Click on check box
+</t>
+  </si>
+  <si>
+    <t>User should be able to view &amp; click on the checkbox</t>
+  </si>
+  <si>
+    <t>Verify the drop down for"TripAdvisor Rating " shows "3 &amp;above" filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to Modify Search page.
+2.Click on dropdown arrow
+</t>
+  </si>
+  <si>
+    <t>User should be able to view the filter"3&amp;above".</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC045</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC046</t>
+  </si>
+  <si>
+    <t>Verify the "3&amp;above" filter has check box and it is clickable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to Modify Search page.
+2.Click on dropdown arrow
+3.Click on checkbox
+</t>
+  </si>
+  <si>
+    <t>User should be able to click on the checkbox</t>
   </si>
 </sst>
 </file>
@@ -3896,22 +4216,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C207C4-DB37-4220-A418-32150AB8574C}">
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
     <col min="9" max="9" width="34.140625" customWidth="1"/>
-    <col min="10" max="10" width="36.7109375" customWidth="1"/>
+    <col min="10" max="10" width="45.85546875" customWidth="1"/>
     <col min="11" max="11" width="28.42578125" customWidth="1"/>
-    <col min="12" max="13" width="27.85546875" customWidth="1"/>
+    <col min="12" max="12" width="31.85546875" customWidth="1"/>
+    <col min="13" max="13" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
@@ -3989,22 +4310,27 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="I2" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L2" s="12" t="s">
@@ -4013,258 +4339,418 @@
       <c r="M2" s="12" t="s">
         <v>242</v>
       </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
     </row>
     <row r="3" spans="1:24" ht="150" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="I3" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L3" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="12" t="s">
         <v>265</v>
       </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
     </row>
     <row r="4" spans="1:24" ht="150" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="I4" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L4" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="12" t="s">
         <v>267</v>
       </c>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
     </row>
     <row r="5" spans="1:24" ht="150" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="I5" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="12" t="s">
         <v>268</v>
       </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
     </row>
     <row r="6" spans="1:24" ht="150" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="I6" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="12" t="s">
         <v>271</v>
       </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
     </row>
     <row r="7" spans="1:24" ht="150" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="I7" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="12" t="s">
         <v>273</v>
       </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
     </row>
     <row r="8" spans="1:24" ht="150" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="I8" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L8" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="12" t="s">
         <v>275</v>
       </c>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
     </row>
     <row r="9" spans="1:24" ht="150" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="I9" t="s">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="12" t="s">
         <v>280</v>
       </c>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
     </row>
     <row r="10" spans="1:24" ht="150" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="I10" t="s">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="12" t="s">
         <v>283</v>
       </c>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
     </row>
     <row r="11" spans="1:24" ht="180" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="I11" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L11" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="12" t="s">
         <v>287</v>
       </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
     </row>
     <row r="12" spans="1:24" ht="195" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="I12" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J12" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L12" s="12" t="s">
@@ -4273,102 +4759,166 @@
       <c r="M12" s="12" t="s">
         <v>290</v>
       </c>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
     </row>
     <row r="13" spans="1:24" ht="165" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="I13" t="s">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L13" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="12" t="s">
         <v>297</v>
       </c>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
     </row>
     <row r="14" spans="1:24" ht="165" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="I14" t="s">
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L14" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="12" t="s">
         <v>300</v>
       </c>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
     </row>
     <row r="15" spans="1:24" ht="165" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="I15" t="s">
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J15" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L15" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="12" t="s">
         <v>303</v>
       </c>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
     </row>
     <row r="16" spans="1:24" ht="165" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="I16" t="s">
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J16" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L16" s="12" t="s">
@@ -4377,24 +4927,40 @@
       <c r="M16" s="12" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+    </row>
+    <row r="17" spans="1:24" ht="165" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="I17" t="s">
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J17" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L17" s="12" t="s">
@@ -4403,109 +4969,1146 @@
       <c r="M17" s="12" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" ht="180" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+    </row>
+    <row r="18" spans="1:24" ht="180" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="I18" t="s">
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J18" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L18" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="12" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" ht="180" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+    </row>
+    <row r="19" spans="1:24" ht="180" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="I19" t="s">
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J19" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L19" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="12" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" ht="180" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+    </row>
+    <row r="20" spans="1:24" ht="180" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="I20" t="s">
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J20" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L20" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="12" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" ht="195" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+    </row>
+    <row r="21" spans="1:24" ht="195" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="I21" t="s">
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J21" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L21" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="12" t="s">
         <v>324</v>
+      </c>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+    </row>
+    <row r="22" spans="1:24" ht="165" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+    </row>
+    <row r="23" spans="1:24" ht="180" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+    </row>
+    <row r="24" spans="1:24" ht="180" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+    </row>
+    <row r="25" spans="1:24" ht="165" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+    </row>
+    <row r="26" spans="1:24" ht="150" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+    </row>
+    <row r="27" spans="1:24" ht="180" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+    </row>
+    <row r="28" spans="1:24" ht="180" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+    </row>
+    <row r="29" spans="1:24" ht="180" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+    </row>
+    <row r="30" spans="1:24" ht="180" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+    </row>
+    <row r="31" spans="1:24" ht="150" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+    </row>
+    <row r="32" spans="1:24" ht="180" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+    </row>
+    <row r="33" spans="1:24" ht="180" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+    </row>
+    <row r="34" spans="1:24" ht="150" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+    </row>
+    <row r="35" spans="1:24" ht="150" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M35" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+    </row>
+    <row r="36" spans="1:24" ht="150" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+    </row>
+    <row r="37" spans="1:24" ht="150" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+    </row>
+    <row r="38" spans="1:24" ht="150" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+    </row>
+    <row r="39" spans="1:24" ht="150" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="L39" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M39" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+    </row>
+    <row r="40" spans="1:24" ht="150" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+    </row>
+    <row r="41" spans="1:24" ht="150" x14ac:dyDescent="0.25">
+      <c r="B41" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="150" x14ac:dyDescent="0.25">
+      <c r="B42" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M42" s="12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="150" x14ac:dyDescent="0.25">
+      <c r="B43" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="L43" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M43" s="12" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="150" x14ac:dyDescent="0.25">
+      <c r="B44" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M44" s="12" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="150" x14ac:dyDescent="0.25">
+      <c r="B45" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="L45" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M45" s="12" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="150" x14ac:dyDescent="0.25">
+      <c r="B46" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M46" s="12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/test planning/Test Planning ClearTrip Search Page_Aradhana_Shinde.xlsx
+++ b/test planning/Test Planning ClearTrip Search Page_Aradhana_Shinde.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P1345360\eclipse-workspace\ClearTrip\test planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DDC7B1-9713-4F2E-AD53-66E9FB6BFD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D16C5A-934A-4131-9312-E75449B014ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BC35887B-994E-4CD8-BA69-E01669A120EF}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="557">
   <si>
     <t>S/n</t>
   </si>
@@ -1582,6 +1582,490 @@
   </si>
   <si>
     <t>User should be able to click on the checkbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify "Amenities" label </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to Modify Search page.
+</t>
+  </si>
+  <si>
+    <t>User should be able to view "Amenties" label</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC047</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC048</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC049</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC050</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC051</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC052</t>
+  </si>
+  <si>
+    <t>Verify the dropdown arrow for "Amenities " label is visible and clickable</t>
+  </si>
+  <si>
+    <t>User should be able to view and click on dropdown arrow on "Amenities"label.</t>
+  </si>
+  <si>
+    <t>Verify the dropdown for"Amenities" shows 3sub filters and link for see more</t>
+  </si>
+  <si>
+    <t>User should be able to view 3 filters and link for see more.</t>
+  </si>
+  <si>
+    <t>Verify the "Internet" filter is visible in "Amenities " dropdown</t>
+  </si>
+  <si>
+    <t>User should be able "Internet" filter.</t>
+  </si>
+  <si>
+    <t>Verify the"Internet" filter have check box which is visible and clickable</t>
+  </si>
+  <si>
+    <t>User should be able to view and check on click box.</t>
+  </si>
+  <si>
+    <t>Verify the "Restaurant" filter is visible in "Amenities " dropdown</t>
+  </si>
+  <si>
+    <t>User should be able to view"Restaurant" filter</t>
+  </si>
+  <si>
+    <t>Verify the"Restaurant" filter have check box which is visible and clickable</t>
+  </si>
+  <si>
+    <t>User should be able to click on the checkbox of"Restaurant"</t>
+  </si>
+  <si>
+    <t>Verify the "Air Conditioning" filter is visible in "Amenities " dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to Modify Search page.
+2.Click on dropdown arrow
+3.Click on Checkbox
+</t>
+  </si>
+  <si>
+    <t>User should be able to view"Air conditioning" filter</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC053</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC054</t>
+  </si>
+  <si>
+    <t>Verify the"Air Conditioning" filter have check box which is visible and clickable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to Modify Search page.
+2.Click on dropdown arrow
+3.click on checkbox
+</t>
+  </si>
+  <si>
+    <t>User should be able to click on the check box "Air Conditioning " filter.</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC055</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC056</t>
+  </si>
+  <si>
+    <t>Verify the "See more"Link is clickable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to Modify Search page.
+2.Click on dropdown arrow
+3.click on "See More"
+</t>
+  </si>
+  <si>
+    <t>User should be able to view"See more" link in "Amenities"filter</t>
+  </si>
+  <si>
+    <t>User should be able to click on "See more" link in "Amenities"filter.</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC057</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC058</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC059</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC060</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC061</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC062</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC063</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC064</t>
+  </si>
+  <si>
+    <t>Verify the"See more" link shows following sub filters</t>
+  </si>
+  <si>
+    <t>User should be able to vie following sub filters:
+1.Pool
+2.Parking.
+3.24 hr front desk
+4.Free pick up &amp; drop.
+5.Gym.
+6.Room Service.
+7.Airport Shuttle.
+8.Spa
+9.Bar
+10.Coffee Shop.
+11.See less</t>
+  </si>
+  <si>
+    <t>User should be able to view the "Pool" filter and checkbox for same.</t>
+  </si>
+  <si>
+    <t>Verify the "Pool " filter is visible and have a checkbox</t>
+  </si>
+  <si>
+    <t>Verify  the checkbox for "Pool" filter is clickable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to Modify Search page.
+2.Click on dropdown arrow
+3.click on "See More"
+4.Click on checkbox
+</t>
+  </si>
+  <si>
+    <t>User should be able to click on the "Pool" filter check box</t>
+  </si>
+  <si>
+    <t>Verify the "Parking "filter is visible and have a checkbox</t>
+  </si>
+  <si>
+    <t>User should be able to view the "Parking" filter and checkbox for same.</t>
+  </si>
+  <si>
+    <t>User should be able to click on the "Parking" filter check box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to Modify Search page.
+2.Click on dropdown arrow
+3.click on "See More"
+</t>
+  </si>
+  <si>
+    <t>User should be able to view the "24hr front desk" filter and checkbox for same.</t>
+  </si>
+  <si>
+    <t>Verify the "24hr front desk "filter is visible and have a checkbox</t>
+  </si>
+  <si>
+    <t>Verify  the checkbox for "24hr front desk" filter is clickable</t>
+  </si>
+  <si>
+    <t>User should be able to click on the "24hr front desk" filter check box</t>
+  </si>
+  <si>
+    <t>Verify the "Free pickup &amp; drop "filter is visible and have a checkbox</t>
+  </si>
+  <si>
+    <t>User should be able to view the "Free pickup &amp; drop" filter and checkbox for same.</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC065</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC066</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC067</t>
+  </si>
+  <si>
+    <t>Verify  the checkbox for "Parking" filter is clickable</t>
+  </si>
+  <si>
+    <t>User should be able to click on the "Free pickup&amp;drop" filter check box</t>
+  </si>
+  <si>
+    <t>Verify the "Gym"filter is visible and have a checkbox</t>
+  </si>
+  <si>
+    <t>User should be able to click on the "Gym" filter check box</t>
+  </si>
+  <si>
+    <t>User should be able to view the "Gym" filter and checkbox for same.</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC068</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC069</t>
+  </si>
+  <si>
+    <t>User should be able to view the "Room Service" filter and checkbox for same.</t>
+  </si>
+  <si>
+    <t>User should be able to click on the "Room Service" filter check box</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC070</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC071</t>
+  </si>
+  <si>
+    <t>Verify the "Room service" filter is visible and have a checkbox</t>
+  </si>
+  <si>
+    <t>Verify the "Airport Shuttle" filter is visible and have a checkbox</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC072</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC073</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC074</t>
+  </si>
+  <si>
+    <t>User should be able to view the "Airport Filter" filter and checkbox for same.</t>
+  </si>
+  <si>
+    <t>User should be able to click on the "Airport Filter" filter check box</t>
+  </si>
+  <si>
+    <t>Verify the "Spa" filter is visible and have a checkbox</t>
+  </si>
+  <si>
+    <t>User should be able to click on the "Spa" filter check box</t>
+  </si>
+  <si>
+    <t>User should be able to view the "Spa" filter and checkbox for same.</t>
+  </si>
+  <si>
+    <t>Verify the "Bar" filter is visible and have a checkbox</t>
+  </si>
+  <si>
+    <t>User should be able to click on the "Bar" filter check box</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC075</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC076</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to Modify Search page.
+2.Click on dropdown arrow
+3.click on "See More"
+4.Click on checkbox
+</t>
+  </si>
+  <si>
+    <t>User should be able to view the "Bar" filter and checkbox for same.</t>
+  </si>
+  <si>
+    <t>Verify the "Coffee Shop" filter is visible and have a checkbox</t>
+  </si>
+  <si>
+    <t>User should be able to click on the "Coffee Shop" filter check box</t>
+  </si>
+  <si>
+    <t>User should be able to view the "Coffee Shop" filter and checkbox for same.</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC078</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC079</t>
+  </si>
+  <si>
+    <t>Verify  the checkbox for "Room Service" filter is clickable</t>
+  </si>
+  <si>
+    <t>Verify  the checkbox for "Coffee Shop" filter is clickable</t>
+  </si>
+  <si>
+    <t>Verify  the checkbox for "Bar" filter is clickable</t>
+  </si>
+  <si>
+    <t>Verify  the checkbox for "Spa" filter is clickable</t>
+  </si>
+  <si>
+    <t>Verify  the checkbox for "Airport Shuttle" filter is clickable</t>
+  </si>
+  <si>
+    <t>Verify the "See less"link is visible</t>
+  </si>
+  <si>
+    <t>User should be able to view "See less" link</t>
+  </si>
+  <si>
+    <t>Verify the "See link " is clickable and hides filters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to Modify Search page.
+2.Click on dropdown arrow
+3.click on "See More"
+4.Click on "See less"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to click on "See less" it should also hide the following filters:
+1.Pool
+2.Parking.
+3.24 hr front desk
+4.Free pick up &amp; drop.
+5.Gym.
+6.Room Service.
+7.Airport Shuttle.
+8.Spa
+9.Bar
+10.Coffee Shop.
+</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC080</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC081</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC082</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC083</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC084</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC085</t>
+  </si>
+  <si>
+    <t>Verify the "See more" link is visible in "Amenities" filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify "Property Types" label </t>
+  </si>
+  <si>
+    <t>Verify the dropdown arrow for "Property Types " label is visible and clickable</t>
+  </si>
+  <si>
+    <t>User should be able to view the "Property Types" label</t>
+  </si>
+  <si>
+    <t>User should be able to click on the dropdown arrow of "Property Types" label</t>
+  </si>
+  <si>
+    <t>Verify the dropdown for"Property Types" shows 3sub filters  and "See more"link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to Modify Search page.
+</t>
+  </si>
+  <si>
+    <t>User should be able to click on the dropdown arrow and following 3 seb filters should be visible along with "See more " link.
+1.Hotel.
+2.Guest House.
+3.Resort.</t>
+  </si>
+  <si>
+    <t>Verify the "Hotel" filter is visible and have a checkbox</t>
+  </si>
+  <si>
+    <t>Verify  the checkbox for "Hotel" filter is clickable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to Modify Search page.
+2.Click on checkbox
+</t>
+  </si>
+  <si>
+    <t>User should be able to view the "Hotel" filter and checkbox for same.</t>
+  </si>
+  <si>
+    <t>User should be able to click on the "Hotel" filter check box</t>
+  </si>
+  <si>
+    <t>Verify the "Guest House" filter is visible and have a checkbox</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC086</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC087</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC088</t>
+  </si>
+  <si>
+    <t>Verify  the checkbox for "Guest House" filter is clickable</t>
+  </si>
+  <si>
+    <t>User should be able to view the "Guest House" filter and checkbox for same.</t>
+  </si>
+  <si>
+    <t>User should be able to click on the "Guest House" filter check box</t>
+  </si>
+  <si>
+    <t>Verify the "Resort" filter is visible and have a checkbox</t>
+  </si>
+  <si>
+    <t>Verify  the checkbox for "Resort" filter is clickable</t>
+  </si>
+  <si>
+    <t>User should be able to view the "Resort" filter and checkbox for same.</t>
+  </si>
+  <si>
+    <t>User should be able to click on the "Resort" filter check box</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC089</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC090</t>
+  </si>
+  <si>
+    <t>Verify the " see more" link is visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to Modify Search page.
+2.Click on l"See more"
+</t>
+  </si>
+  <si>
+    <t>User should be able to view" See more" link</t>
+  </si>
+  <si>
+    <t>User should be able to click on the"See more" link</t>
+  </si>
+  <si>
+    <t>Verify the "See more" link is clickable</t>
   </si>
 </sst>
 </file>
@@ -4216,10 +4700,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C207C4-DB37-4220-A418-32150AB8574C}">
-  <dimension ref="A1:X47"/>
+  <dimension ref="A1:X91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4351,7 +4835,7 @@
       <c r="W2" s="12"/>
       <c r="X2" s="12"/>
     </row>
-    <row r="3" spans="1:24" ht="150" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="12" t="s">
         <v>254</v>
@@ -4393,7 +4877,7 @@
       <c r="W3" s="12"/>
       <c r="X3" s="12"/>
     </row>
-    <row r="4" spans="1:24" ht="150" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12" t="s">
         <v>255</v>
@@ -4435,7 +4919,7 @@
       <c r="W4" s="12"/>
       <c r="X4" s="12"/>
     </row>
-    <row r="5" spans="1:24" ht="150" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12" t="s">
         <v>256</v>
@@ -4477,7 +4961,7 @@
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
     </row>
-    <row r="6" spans="1:24" ht="150" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="12" t="s">
         <v>257</v>
@@ -4519,7 +5003,7 @@
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
     </row>
-    <row r="7" spans="1:24" ht="150" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="12" t="s">
         <v>258</v>
@@ -4561,7 +5045,7 @@
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
     </row>
-    <row r="8" spans="1:24" ht="150" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12" t="s">
         <v>259</v>
@@ -4603,7 +5087,7 @@
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
     </row>
-    <row r="9" spans="1:24" ht="150" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
         <v>276</v>
@@ -4645,7 +5129,7 @@
       <c r="W9" s="12"/>
       <c r="X9" s="12"/>
     </row>
-    <row r="10" spans="1:24" ht="150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12" t="s">
         <v>277</v>
@@ -4687,7 +5171,7 @@
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
     </row>
-    <row r="11" spans="1:24" ht="180" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12" t="s">
         <v>278</v>
@@ -4729,7 +5213,7 @@
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
     </row>
-    <row r="12" spans="1:24" ht="195" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="12" t="s">
         <v>279</v>
@@ -4771,7 +5255,7 @@
       <c r="W12" s="12"/>
       <c r="X12" s="12"/>
     </row>
-    <row r="13" spans="1:24" ht="165" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12" t="s">
         <v>291</v>
@@ -4813,7 +5297,7 @@
       <c r="W13" s="12"/>
       <c r="X13" s="12"/>
     </row>
-    <row r="14" spans="1:24" ht="165" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="12" t="s">
         <v>292</v>
@@ -4855,7 +5339,7 @@
       <c r="W14" s="12"/>
       <c r="X14" s="12"/>
     </row>
-    <row r="15" spans="1:24" ht="165" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12" t="s">
         <v>293</v>
@@ -4897,7 +5381,7 @@
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
     </row>
-    <row r="16" spans="1:24" ht="165" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12" t="s">
         <v>294</v>
@@ -4981,7 +5465,7 @@
       <c r="W17" s="12"/>
       <c r="X17" s="12"/>
     </row>
-    <row r="18" spans="1:24" ht="180" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12" t="s">
         <v>306</v>
@@ -5023,7 +5507,7 @@
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
     </row>
-    <row r="19" spans="1:24" ht="180" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="12" t="s">
         <v>307</v>
@@ -5065,7 +5549,7 @@
       <c r="W19" s="12"/>
       <c r="X19" s="12"/>
     </row>
-    <row r="20" spans="1:24" ht="180" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12" t="s">
         <v>308</v>
@@ -5107,7 +5591,7 @@
       <c r="W20" s="12"/>
       <c r="X20" s="12"/>
     </row>
-    <row r="21" spans="1:24" ht="195" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12" t="s">
         <v>309</v>
@@ -5149,7 +5633,7 @@
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
     </row>
-    <row r="22" spans="1:24" ht="165" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12" t="s">
         <v>325</v>
@@ -5191,7 +5675,7 @@
       <c r="W22" s="12"/>
       <c r="X22" s="12"/>
     </row>
-    <row r="23" spans="1:24" ht="180" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="12" t="s">
         <v>326</v>
@@ -5233,7 +5717,7 @@
       <c r="W23" s="12"/>
       <c r="X23" s="12"/>
     </row>
-    <row r="24" spans="1:24" ht="180" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12" t="s">
         <v>327</v>
@@ -5275,7 +5759,7 @@
       <c r="W24" s="12"/>
       <c r="X24" s="12"/>
     </row>
-    <row r="25" spans="1:24" ht="165" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
         <v>328</v>
@@ -5359,7 +5843,7 @@
       <c r="W26" s="12"/>
       <c r="X26" s="12"/>
     </row>
-    <row r="27" spans="1:24" ht="180" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="12" t="s">
         <v>330</v>
@@ -5401,7 +5885,7 @@
       <c r="W27" s="12"/>
       <c r="X27" s="12"/>
     </row>
-    <row r="28" spans="1:24" ht="180" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="12" t="s">
         <v>331</v>
@@ -5443,7 +5927,7 @@
       <c r="W28" s="12"/>
       <c r="X28" s="12"/>
     </row>
-    <row r="29" spans="1:24" ht="180" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12" t="s">
         <v>352</v>
@@ -5485,7 +5969,7 @@
       <c r="W29" s="12"/>
       <c r="X29" s="12"/>
     </row>
-    <row r="30" spans="1:24" ht="180" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12" t="s">
         <v>353</v>
@@ -5569,7 +6053,7 @@
       <c r="W31" s="12"/>
       <c r="X31" s="12"/>
     </row>
-    <row r="32" spans="1:24" ht="180" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="12" t="s">
         <v>355</v>
@@ -5611,7 +6095,7 @@
       <c r="W32" s="12"/>
       <c r="X32" s="12"/>
     </row>
-    <row r="33" spans="1:24" ht="180" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="12" t="s">
         <v>366</v>
@@ -6103,12 +6587,1111 @@
         <v>413</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
         <v>410</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>252</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="L47" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M47" s="12" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="150" x14ac:dyDescent="0.25">
+      <c r="B48" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="L48" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M48" s="12" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B49" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="L49" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M49" s="12" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B50" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="L50" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M50" s="12" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B51" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="L51" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M51" s="12" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B52" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="L52" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M52" s="12" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B53" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K53" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="L53" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M53" s="12" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B54" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K54" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="L54" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M54" s="12" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B55" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="L55" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M55" s="12" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B56" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="L56" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M56" s="12" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B57" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="L57" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M57" s="12" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" ht="195" x14ac:dyDescent="0.25">
+      <c r="B58" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="L58" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M58" s="12" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B59" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="L59" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M59" s="12" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B60" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K60" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="L60" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M60" s="12" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B61" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="L61" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M61" s="12" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B62" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J62" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K62" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="L62" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M62" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" s="12" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="B63" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J63" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K63" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="L63" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M63" s="12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B64" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J64" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K64" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="L64" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M64" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B65" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J65" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K65" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="L65" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M65" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B66" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J66" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K66" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="L66" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M66" s="12" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B67" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="I67" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J67" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K67" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="L67" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M67" s="12" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B68" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J68" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K68" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="L68" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M68" s="12" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B69" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J69" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K69" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="L69" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M69" s="12" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B70" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="I70" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J70" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="L70" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M70" s="12" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B71" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="J71" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K71" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="L71" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M71" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" s="12" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="B72" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="J72" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K72" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="L72" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M72" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B73" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="J73" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K73" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="L73" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M73" s="12" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" s="12" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="B74" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="J74" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K74" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="L74" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M74" s="12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B75" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="J75" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K75" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="L75" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M75" s="12" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B76" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="J76" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K76" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="L76" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M76" s="12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B77" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="J77" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K77" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="L77" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M77" s="12" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B78" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="J78" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K78" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="L78" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M78" s="12" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B79" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="J79" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K79" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="L79" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M79" s="12" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="B80" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="J80" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K80" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="L80" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M80" s="12" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B81" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="J81" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K81" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="L81" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M81" s="12" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B82" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="J82" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K82" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="L82" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M82" s="12" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B83" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="J83" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K83" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="L83" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M83" s="12" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B84" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="J84" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K84" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="L84" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M84" s="12" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B85" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="J85" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K85" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="L85" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M85" s="12" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" s="12" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="B86" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="J86" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K86" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="L86" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M86" s="12" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" s="12" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="B87" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="J87" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K87" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="L87" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M87" s="12" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B88" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="J88" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K88" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="L88" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M88" s="12" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B89" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="J89" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K89" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="L89" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M89" s="12" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B90" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="J90" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K90" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="L90" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M90" s="12" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B91" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="J91" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K91" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="L91" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M91" s="12" t="s">
+        <v>555</v>
       </c>
     </row>
   </sheetData>

--- a/test planning/Test Planning ClearTrip Search Page_Aradhana_Shinde.xlsx
+++ b/test planning/Test Planning ClearTrip Search Page_Aradhana_Shinde.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P1345360\eclipse-workspace\ClearTrip\test planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D16C5A-934A-4131-9312-E75449B014ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65768275-6AA7-4DC2-B494-AA17C51468E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BC35887B-994E-4CD8-BA69-E01669A120EF}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="563">
   <si>
     <t>S/n</t>
   </si>
@@ -2066,6 +2066,26 @@
   </si>
   <si>
     <t>Verify the "See more" link is clickable</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC091</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC092</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC093</t>
+  </si>
+  <si>
+    <t>Verify the user is able to  click on "view details" button of any hotel and navigate to next page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to Modify Search page.
+2.Click on "View Details" button
+</t>
+  </si>
+  <si>
+    <t>User should be able to click on the "View Details" button and get directed to next page.</t>
   </si>
 </sst>
 </file>
@@ -4700,10 +4720,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C207C4-DB37-4220-A418-32150AB8574C}">
-  <dimension ref="A1:X91"/>
+  <dimension ref="A1:X94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7694,6 +7714,45 @@
         <v>555</v>
       </c>
     </row>
+    <row r="92" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B92" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="J92" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="K92" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="L92" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="M92" s="12" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B93" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B94" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>252</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test planning/Test Planning ClearTrip Search Page_Aradhana_Shinde.xlsx
+++ b/test planning/Test Planning ClearTrip Search Page_Aradhana_Shinde.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P1345360\eclipse-workspace\ClearTrip\test planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65768275-6AA7-4DC2-B494-AA17C51468E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40304B80-B788-4D9C-AC94-FE02ABBF7D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BC35887B-994E-4CD8-BA69-E01669A120EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{BC35887B-994E-4CD8-BA69-E01669A120EF}"/>
   </bookViews>
   <sheets>
     <sheet name="ClearTrip Search Page" sheetId="1" r:id="rId1"/>
     <sheet name="ClearTrip Search Result Page" sheetId="2" r:id="rId2"/>
+    <sheet name="View Details Page" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ClearTrip Search Page'!$A$1:$W$1</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="601">
   <si>
     <t>S/n</t>
   </si>
@@ -982,9 +983,6 @@
     <t>Verfiy the date for checkout</t>
   </si>
   <si>
-    <t xml:space="preserve">Verfiy the number of Room, Adults and childern  </t>
-  </si>
-  <si>
     <t>The user should be able to view" Chennai  , Tamil Nadu " in the where to textbox</t>
   </si>
   <si>
@@ -1013,9 +1011,6 @@
 3.Checkout : 27July
 4.Room : 1
 5. Adults :2</t>
-  </si>
-  <si>
-    <t>User should be able to view "1 Room, 2 Adults" in travellers textbox.</t>
   </si>
   <si>
     <t>Verify and Validate the Modify Search  button is visible and active</t>
@@ -2086,6 +2081,203 @@
   </si>
   <si>
     <t>User should be able to click on the "View Details" button and get directed to next page.</t>
+  </si>
+  <si>
+    <t>User should be able to view the hotel image for every hotel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the hotel image for every hotel is visible </t>
+  </si>
+  <si>
+    <t>Verify that every hotel should show stay charges for single day</t>
+  </si>
+  <si>
+    <t>User should be able to view the stay charges for per night.</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC094</t>
+  </si>
+  <si>
+    <t>CT_HOTELS_TC095</t>
+  </si>
+  <si>
+    <t>Verify the per night charges shown should in rupees</t>
+  </si>
+  <si>
+    <t>User should be able to view the chargers in rupees.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the percentage of OFF </t>
+  </si>
+  <si>
+    <t>1.Navigate to View Details</t>
+  </si>
+  <si>
+    <t>1.Navigate to mentioned URL.
+2.Enter data in "Where to?" to textbox .
+3.Pick a date from checkin date picker.
+4.Pick a date from checkout date picker.
+5. Select number of Adults.
+6.Select number of children and there age.
+7.Select number of rooms
+8.Click on "Search Hotels" button
+9.Click on "View Details"</t>
+  </si>
+  <si>
+    <t>Fill the required data in the Search page and navigate to search result page then click on View details button</t>
+  </si>
+  <si>
+    <t>ViewDetails_Page</t>
+  </si>
+  <si>
+    <t>1.Navigate to mentioned URL.
+2.Enter data in "Where to?" to textbox .
+3.Pick a date from checkin date picker.
+4.Pick a date from checkout date picker.
+5. Select number of Adults.
+6.Select number of children and there age.
+7.Select number of rooms
+8.Click on "Search Hotels" button
+9.Click on "View Details" button</t>
+  </si>
+  <si>
+    <t>1.Locality : Chennai.
+2.Checkin: 8 Nov.
+3.Checkout : 13 Nov
+4.Room : 1
+5. Adults :3</t>
+  </si>
+  <si>
+    <t>1.Navigate to mentioned URL.
+2.Enter data in "Where to?" to textbox .
+3.Pick a date from checkin date picker.
+4.Pick a date from checkout date picker.
+5. Select number of Adults.
+6.Select number of children and there age.
+7.Select number of rooms
+8.Click on "Search Hotels" button
+9.Click on "View Details" 
+10.Click on arrow</t>
+  </si>
+  <si>
+    <t>1.Navigate to mentioned URL.
+2.Enter data in "Where to?" to textbox .
+3.Pick a date from checkin date picker.
+4.Pick a date from checkout date picker.
+5. Select number of Adults.
+6.Select number of children and there age.
+7.Select number of rooms
+8.Click on "Search Hotels" button
+9.Click on"View Details" button.
+10.Click on Traveller box arrow.
+11.Click on "Add more Room and Travellers".</t>
+  </si>
+  <si>
+    <t>1.Navigate to mentioned URL.
+2.Enter data in "Where to?" to textbox .
+3.Pick a date from checkin date picker.
+4.Pick a date from checkout date picker.
+5. Select number of Adults.
+6.Select number of children and there age.
+7.Select number of rooms
+8.Click on "Search Hotels" button
+9.Click on"View Details".
+10.Click on Traveller box arrow.
+11.Click on "1Room , 1 Adult".</t>
+  </si>
+  <si>
+    <t>Verify the "Select Room" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to mentioned URL.
+2.Enter data in "Where to?" to textbox .
+3.Pick a date from checkin date picker.
+4.Pick a date from checkout date picker.
+5. Select number of Adults.
+6.Select number of children and there age.
+7.Select number of rooms
+8.Click on "Search Hotels" button
+9.Click on"View Details" button.
+</t>
+  </si>
+  <si>
+    <t>User should be able to view the"Select Room" button</t>
+  </si>
+  <si>
+    <t>Verify the "Select Room "button is active</t>
+  </si>
+  <si>
+    <t>1.Locality : Chennai.
+2.Checkin: 8 Nov.
+3.Checkout : 13 Nov
+4.Room : 1
+5. Adults :4</t>
+  </si>
+  <si>
+    <t>User should be able to click on the"Select Room "button</t>
+  </si>
+  <si>
+    <t>Verify "Enter Locality" textbox should be editable</t>
+  </si>
+  <si>
+    <t>User should be able to enter data in the textbox</t>
+  </si>
+  <si>
+    <t>Verify the suggestion list should appear when data entered in textbox of "Enter Locality"</t>
+  </si>
+  <si>
+    <t>1.Navigate to View Details
+2.Enter data in textbox</t>
+  </si>
+  <si>
+    <t>1.Locality : Chennai.
+2.Checkin: 8 Nov.
+3.Checkout : 13 Nov
+4.Room : 1
+5. Adults :5
+6. Location:Chennai</t>
+  </si>
+  <si>
+    <t>Usershould be able to view the relative  suggestion list once he enters the data in textbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to View Details
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Locality : Chennai.
+2.Checkin: 8 Nov.
+3.Checkout : 13 Nov
+4.Room : 1
+5. Adults :5
+</t>
+  </si>
+  <si>
+    <t>User should be able to view the total cost according to the total number of rooms and number of nights.</t>
+  </si>
+  <si>
+    <t>Verify the price for selected hotel is displayed</t>
+  </si>
+  <si>
+    <t>Verify "View All Hotels In Chennai" link is visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to View Details
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to View Details
+2.Click on "View All Hotels In Chennai" link
+</t>
+  </si>
+  <si>
+    <t>User should be able to view the link</t>
+  </si>
+  <si>
+    <t>User should be able to click the link and get navigated to previous page.</t>
+  </si>
+  <si>
+    <t>Verify the "View All Hotels In Chennai" link is clickable and active</t>
   </si>
 </sst>
 </file>
@@ -2523,8 +2715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D09BFAF-F2E2-4DF2-A9B7-089293F5BF76}">
   <dimension ref="A1:X252"/>
   <sheetViews>
-    <sheetView topLeftCell="E42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3141,7 +3333,7 @@
         <v>48</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="30" x14ac:dyDescent="0.25">
@@ -4720,10 +4912,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C207C4-DB37-4220-A418-32150AB8574C}">
-  <dimension ref="A1:X94"/>
+  <dimension ref="A1:X97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4838,7 +5030,7 @@
         <v>239</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>242</v>
@@ -4880,10 +5072,10 @@
         <v>239</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
@@ -4922,10 +5114,10 @@
         <v>239</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
@@ -4964,10 +5156,10 @@
         <v>239</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -4990,7 +5182,7 @@
         <v>252</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -5006,10 +5198,10 @@
         <v>239</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>269</v>
+        <v>575</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -5032,7 +5224,7 @@
         <v>252</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -5048,10 +5240,10 @@
         <v>239</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -5074,7 +5266,7 @@
         <v>252</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -5090,10 +5282,10 @@
         <v>239</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
@@ -5110,13 +5302,13 @@
     <row r="9" spans="1:24" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -5132,10 +5324,10 @@
         <v>239</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
@@ -5152,13 +5344,13 @@
     <row r="10" spans="1:24" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -5174,10 +5366,10 @@
         <v>239</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
@@ -5194,13 +5386,13 @@
     <row r="11" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -5210,16 +5402,16 @@
         <v>253</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
@@ -5236,13 +5428,13 @@
     <row r="12" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -5252,16 +5444,16 @@
         <v>253</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
@@ -5278,13 +5470,13 @@
     <row r="13" spans="1:24" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -5294,16 +5486,16 @@
         <v>253</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
@@ -5320,13 +5512,13 @@
     <row r="14" spans="1:24" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -5336,16 +5528,16 @@
         <v>253</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
@@ -5362,13 +5554,13 @@
     <row r="15" spans="1:24" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -5378,16 +5570,16 @@
         <v>253</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
@@ -5404,13 +5596,13 @@
     <row r="16" spans="1:24" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -5420,16 +5612,16 @@
         <v>253</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
@@ -5446,13 +5638,13 @@
     <row r="17" spans="1:24" ht="165" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -5462,16 +5654,16 @@
         <v>253</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K17" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
@@ -5488,13 +5680,13 @@
     <row r="18" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -5504,16 +5696,16 @@
         <v>253</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
@@ -5530,13 +5722,13 @@
     <row r="19" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -5546,16 +5738,16 @@
         <v>253</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K19" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
@@ -5572,13 +5764,13 @@
     <row r="20" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
@@ -5588,16 +5780,16 @@
         <v>253</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
@@ -5614,13 +5806,13 @@
     <row r="21" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -5630,16 +5822,16 @@
         <v>253</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K21" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
@@ -5656,13 +5848,13 @@
     <row r="22" spans="1:24" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
@@ -5672,16 +5864,16 @@
         <v>253</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
@@ -5698,13 +5890,13 @@
     <row r="23" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -5714,16 +5906,16 @@
         <v>253</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
@@ -5740,13 +5932,13 @@
     <row r="24" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -5756,16 +5948,16 @@
         <v>253</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
@@ -5782,13 +5974,13 @@
     <row r="25" spans="1:24" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
@@ -5798,16 +5990,16 @@
         <v>253</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K25" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
@@ -5824,13 +6016,13 @@
     <row r="26" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -5840,16 +6032,16 @@
         <v>253</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
@@ -5866,13 +6058,13 @@
     <row r="27" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -5882,16 +6074,16 @@
         <v>253</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
@@ -5908,13 +6100,13 @@
     <row r="28" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -5924,16 +6116,16 @@
         <v>253</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
@@ -5950,13 +6142,13 @@
     <row r="29" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
@@ -5966,16 +6158,16 @@
         <v>253</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K29" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="M29" s="12" t="s">
         <v>358</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>360</v>
       </c>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
@@ -5992,13 +6184,13 @@
     <row r="30" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
@@ -6008,16 +6200,16 @@
         <v>253</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
@@ -6034,13 +6226,13 @@
     <row r="31" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -6050,16 +6242,16 @@
         <v>253</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K31" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M31" s="12" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
@@ -6076,13 +6268,13 @@
     <row r="32" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
@@ -6092,16 +6284,16 @@
         <v>253</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
@@ -6118,13 +6310,13 @@
     <row r="33" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
@@ -6134,16 +6326,16 @@
         <v>253</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M33" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
@@ -6160,13 +6352,13 @@
     <row r="34" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
@@ -6176,16 +6368,16 @@
         <v>253</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
@@ -6202,13 +6394,13 @@
     <row r="35" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
@@ -6218,16 +6410,16 @@
         <v>253</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
@@ -6244,13 +6436,13 @@
     <row r="36" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
@@ -6260,16 +6452,16 @@
         <v>253</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>239</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
@@ -6286,13 +6478,13 @@
     <row r="37" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -6302,16 +6494,16 @@
         <v>253</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="N37" s="12"/>
       <c r="O37" s="12"/>
@@ -6328,13 +6520,13 @@
     <row r="38" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
@@ -6344,16 +6536,16 @@
         <v>253</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
@@ -6370,13 +6562,13 @@
     <row r="39" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
@@ -6386,16 +6578,16 @@
         <v>253</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="N39" s="12"/>
       <c r="O39" s="12"/>
@@ -6412,13 +6604,13 @@
     <row r="40" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
@@ -6428,16 +6620,16 @@
         <v>253</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="N40" s="12"/>
       <c r="O40" s="12"/>
@@ -6453,1304 +6645,2018 @@
     </row>
     <row r="41" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I41" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I42" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I43" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M43" s="12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D44" s="12" t="s">
         <v>396</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>398</v>
       </c>
       <c r="I44" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="L44" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M44" s="12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I45" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M45" s="12" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D46" s="12" t="s">
         <v>409</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>411</v>
       </c>
       <c r="I46" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L46" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I47" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L47" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M47" s="12" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I48" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M48" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="49" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I49" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M49" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="50" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I50" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M50" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="51" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I51" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L51" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M51" s="12" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="52" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I52" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L52" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M52" s="12" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="53" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I53" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="L53" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M53" s="12" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="54" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I54" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L54" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M54" s="12" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="55" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I55" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L55" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M55" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="56" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I56" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M56" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="57" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I57" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K57" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="L57" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="M57" s="12" t="s">
         <v>446</v>
-      </c>
-      <c r="L57" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="M57" s="12" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="58" spans="2:13" ht="195" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I58" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M58" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="59" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I59" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M59" s="12" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="60" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I60" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L60" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M60" s="12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="61" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I61" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L61" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M61" s="12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="62" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I62" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L62" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M62" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="63" spans="2:13" s="12" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="I63" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L63" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M63" s="12" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="64" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I64" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L64" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M64" s="12" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="65" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I65" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L65" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M65" s="12" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="66" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I66" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L66" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M66" s="12" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="67" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="I67" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L67" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M67" s="12" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="68" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="I68" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L68" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M68" s="12" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="69" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="I69" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L69" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M69" s="12" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="70" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I70" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L70" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M70" s="12" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="71" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L71" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M71" s="12" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="72" spans="2:13" s="12" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C72" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M72" s="12" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="73" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D73" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="J73" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="K73" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="L73" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="M73" s="12" t="s">
         <v>495</v>
-      </c>
-      <c r="J73" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="K73" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="L73" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="M73" s="12" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="74" spans="2:13" s="12" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C74" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M74" s="12" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="75" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M75" s="12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="76" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C76" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M76" s="12" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="77" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D77" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="J77" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="K77" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="L77" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="M77" s="12" t="s">
         <v>505</v>
-      </c>
-      <c r="J77" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="K77" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="L77" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="M77" s="12" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="78" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C78" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L78" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M78" s="12" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="79" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L79" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M79" s="12" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="80" spans="2:13" ht="210" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D80" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="J80" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="K80" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="L80" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="M80" s="12" t="s">
         <v>517</v>
-      </c>
-      <c r="J80" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="K80" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="L80" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="M80" s="12" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="81" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D81" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="J81" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="K81" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="L81" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="M81" s="12" t="s">
         <v>527</v>
-      </c>
-      <c r="J81" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="K81" s="12" t="s">
-        <v>532</v>
-      </c>
-      <c r="L81" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="M81" s="12" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="82" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C82" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D82" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="J82" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="K82" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="L82" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="M82" s="12" t="s">
         <v>528</v>
-      </c>
-      <c r="J82" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="K82" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="L82" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="M82" s="12" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="83" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C83" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D83" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="J83" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="K83" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="L83" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="M83" s="12" t="s">
         <v>531</v>
-      </c>
-      <c r="J83" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="K83" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="L83" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="M83" s="12" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="84" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C84" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="L84" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M84" s="12" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="85" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J85" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K85" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="L85" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="M85" s="12" t="s">
         <v>536</v>
-      </c>
-      <c r="L85" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="M85" s="12" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="86" spans="2:13" s="12" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C86" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K86" s="12" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="L86" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M86" s="12" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="87" spans="2:13" s="12" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="B87" s="12" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C87" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D87" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="J87" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="K87" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="L87" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="M87" s="12" t="s">
         <v>543</v>
-      </c>
-      <c r="J87" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="K87" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="L87" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="M87" s="12" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="88" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C88" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D88" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="J88" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="K88" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="L88" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="M88" s="12" t="s">
         <v>546</v>
-      </c>
-      <c r="J88" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="K88" s="12" t="s">
-        <v>532</v>
-      </c>
-      <c r="L88" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="M88" s="12" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="89" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B89" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C89" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D89" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="J89" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="K89" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="L89" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="M89" s="12" t="s">
         <v>547</v>
-      </c>
-      <c r="J89" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="K89" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="L89" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="M89" s="12" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="90" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D90" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="C90" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="D90" s="12" t="s">
+      <c r="J90" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="K90" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="L90" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="M90" s="12" t="s">
         <v>552</v>
-      </c>
-      <c r="J90" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="K90" s="12" t="s">
-        <v>532</v>
-      </c>
-      <c r="L90" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="M90" s="12" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="91" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B91" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="J91" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="K91" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="C91" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="D91" s="12" t="s">
-        <v>556</v>
-      </c>
-      <c r="J91" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="K91" s="12" t="s">
+      <c r="L91" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="M91" s="12" t="s">
         <v>553</v>
-      </c>
-      <c r="L91" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="M91" s="12" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="92" spans="2:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="J92" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="K92" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="L92" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="M92" s="12" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B93" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="J93" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="K93" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="L93" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="M93" s="12" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B94" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="C92" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="D92" s="12" t="s">
-        <v>560</v>
-      </c>
-      <c r="J92" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="K92" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="L92" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="M92" s="12" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="93" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B93" s="12" t="s">
-        <v>558</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="94" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B94" s="12" t="s">
-        <v>559</v>
-      </c>
       <c r="C94" s="12" t="s">
         <v>252</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="J94" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="K94" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="L94" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="M94" s="12" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B95" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="J95" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="K95" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="L95" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="M95" s="12" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B96" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5957FD19-0940-4B12-8A7E-9D3742BE6794}">
+  <dimension ref="A1:X17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" customWidth="1"/>
+    <col min="10" max="10" width="35" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" customWidth="1"/>
+    <col min="13" max="13" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="195" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+    </row>
+    <row r="3" spans="1:24" ht="195" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+    </row>
+    <row r="4" spans="1:24" ht="195" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="195" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+    </row>
+    <row r="6" spans="1:24" ht="195" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+    </row>
+    <row r="7" spans="1:24" ht="195" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+    </row>
+    <row r="8" spans="1:24" ht="210" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+    </row>
+    <row r="9" spans="1:24" ht="225" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+    </row>
+    <row r="10" spans="1:24" ht="240" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+    </row>
+    <row r="11" spans="1:24" ht="210" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="210" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="210" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="210" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="210" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="210" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="210" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>599</v>
       </c>
     </row>
   </sheetData>

--- a/test planning/Test Planning ClearTrip Search Page_Aradhana_Shinde.xlsx
+++ b/test planning/Test Planning ClearTrip Search Page_Aradhana_Shinde.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P1345360\eclipse-workspace\ClearTrip\test planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40304B80-B788-4D9C-AC94-FE02ABBF7D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2AAE4D-29D2-424A-8533-87E31F0057F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{BC35887B-994E-4CD8-BA69-E01669A120EF}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="641">
   <si>
     <t>S/n</t>
   </si>
@@ -2278,6 +2278,205 @@
   </si>
   <si>
     <t>Verify the "View All Hotels In Chennai" link is clickable and active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the "Rooms and rates" list item is visible </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the "Rooms and rates" list item is clickable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to View Details
+2.Click on "Rooms and rates" list item
+</t>
+  </si>
+  <si>
+    <t>User should be able to view"Rooms and rates "list item.</t>
+  </si>
+  <si>
+    <t>User should be able to click on "Rooms and rates" listitem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the "Travellers reviews" list item is clickable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to View Details
+2.Click on "Travellers reviews" list item
+</t>
+  </si>
+  <si>
+    <t>User should be able to click on "Travellers reviews" listitem.</t>
+  </si>
+  <si>
+    <t>Verify the "Travellers reviews" list item is visible</t>
+  </si>
+  <si>
+    <t>1.Navigate to mentioned URL.
+2.Enter data in "Where to?" to textbox .
+3.Pick a date from checkin date picker.
+4.Pick a date from checkout date picker.
+5. Select number of Adults.
+6.Select number of children and there age.
+7.Select number of rooms
+8.Click on "Search Hotels" button
+9.Click on"View Details" button.
+10.Click on "Travellers reviews".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to mentioned URL.
+2.Enter data in "Where to?" to textbox .
+3.Pick a date from checkin date picker.
+4.Pick a date from checkout date picker.
+5. Select number of Adults.
+6.Select number of children and there age.
+7.Select number of rooms
+8.Click on "Search Hotels" button
+9.Click on"View Details" button.
+10.Click on "Rooms and rates" .
+</t>
+  </si>
+  <si>
+    <t>User should be able to view "Travellers reviews" listitem.</t>
+  </si>
+  <si>
+    <t>Verify the " Hotel amenities and info" list item is visible</t>
+  </si>
+  <si>
+    <t>User should be able to view the "Hotel amenities and info" .</t>
+  </si>
+  <si>
+    <t>Verify the "Hotel amenities and info " list item is clickable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to mentioned URL.
+2.Enter data in "Where to?" to textbox .
+3.Pick a date from checkin date picker.
+4.Pick a date from checkout date picker.
+5. Select number of Adults.
+6.Select number of children and there age.
+7.Select number of rooms
+8.Click on "Search Hotels" button
+9.Click on"View Details" button.
+10.Click on "Hotel amenities and info".
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to View Details
+2.Click on "Hotel amenities and info".
+</t>
+  </si>
+  <si>
+    <t>User should be able to click on the "Hotel amenities and info" list.</t>
+  </si>
+  <si>
+    <t>User should be able to view"Map view" list item.</t>
+  </si>
+  <si>
+    <t>Verify the "Map View" list item is visible</t>
+  </si>
+  <si>
+    <t>Verify the "Map View" list item is clickable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to mentioned URL.
+2.Enter data in "Where to?" to textbox .
+3.Pick a date from checkin date picker.
+4.Pick a date from checkout date picker.
+5. Select number of Adults.
+6.Select number of children and there age.
+7.Select number of rooms
+8.Click on "Search Hotels" button
+9.Click on"View Details" button.
+10.Click on "Map view".
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to View Details
+2.Click on "Map view" list item
+</t>
+  </si>
+  <si>
+    <t>User should be able to click on "Map view" list item.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to mentioned URL.
+2.Enter data in "Where to?" to textbox .
+3.Pick a date from checkin date picker.
+4.Pick a date from checkout date picker.
+5. Select number of Adults.
+6.Select number of children and there age.
+7.Select number of rooms
+8.Click on "Search Hotels" button
+9.Click on"View Details" button.
+</t>
+  </si>
+  <si>
+    <t>Verify the default list item select ahould be "Rooms and rates".</t>
+  </si>
+  <si>
+    <t>Th default list item selected should be "Rooms and rates".</t>
+  </si>
+  <si>
+    <t>Verfiy the Rooms and rates list item consist of two types of rooms.
+1.Superior Room.
+2.Delux Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to mentioned URL.
+2.Enter data in "Where to?" to textbox .
+3.Pick a date from checkin date picker.
+4.Pick a date from checkout date picker.
+5. Select number of Adults.
+6.Select number of children and there age.
+7.Select number of rooms
+8.Click on "Search Hotels" button
+9.Click on"View Details" button.
+10.Scroll down till Rooms and rates list item block
+</t>
+  </si>
+  <si>
+    <t>User should be able to view the two types
+1.Superior Room.
+2.Delux Room</t>
+  </si>
+  <si>
+    <t>Verify the Superior room consist of two types  of 1.Superior Single With Breakfast
+2.Superior Double With Breakfast</t>
+  </si>
+  <si>
+    <t>User should be able to view the two types of Superior rooms
+ 1.Superior Single With Breakfast
+2.Superior Double With Breakfast</t>
+  </si>
+  <si>
+    <t>Verify the Superior room with Breakfast consist of following facilities.
+1.Breakfast
+2.Complimentary Wi-Fi Internet.
+3.Free Cancellation</t>
+  </si>
+  <si>
+    <t>Verify the Superior Single room with Breakfast consist of following facilities.
+1.Breakfast
+2.Complimentary Wi-Fi Internet.
+3.Free Cancellation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to view the following facilities in Superior single room with breakfast </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to view the following facilities in Superior double room with breakfast </t>
+  </si>
+  <si>
+    <t>Verify "See all amenities " link is visible</t>
+  </si>
+  <si>
+    <t>User should be able to view the "See all amenities " link.</t>
+  </si>
+  <si>
+    <t>Verify "See all amenities " link is clickable</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The "See all amenities " link should be active</t>
   </si>
 </sst>
 </file>
@@ -2715,8 +2914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D09BFAF-F2E2-4DF2-A9B7-089293F5BF76}">
   <dimension ref="A1:X252"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8023,10 +8222,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5957FD19-0940-4B12-8A7E-9D3742BE6794}">
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8037,9 +8236,9 @@
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
     <col min="9" max="9" width="30.28515625" customWidth="1"/>
     <col min="10" max="10" width="35" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="21.28515625" customWidth="1"/>
-    <col min="13" max="13" width="26.5703125" customWidth="1"/>
+    <col min="11" max="11" width="29.85546875" customWidth="1"/>
+    <col min="12" max="12" width="29.5703125" customWidth="1"/>
+    <col min="13" max="13" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
@@ -8633,10 +8832,13 @@
         <v>596</v>
       </c>
       <c r="L16" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="M16" s="12" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="210" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="210" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>303</v>
       </c>
@@ -8656,7 +8858,400 @@
         <v>597</v>
       </c>
       <c r="L17" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="M17" s="12" t="s">
         <v>599</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="225" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="240" x14ac:dyDescent="0.25">
+      <c r="B23" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="225" x14ac:dyDescent="0.25">
+      <c r="B25" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="225" x14ac:dyDescent="0.25">
+      <c r="B26" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="240" x14ac:dyDescent="0.25">
+      <c r="B27" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="240" x14ac:dyDescent="0.25">
+      <c r="B28" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="240" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="240" x14ac:dyDescent="0.25">
+      <c r="B30" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="240" x14ac:dyDescent="0.25">
+      <c r="B31" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="240" x14ac:dyDescent="0.25">
+      <c r="B32" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>640</v>
       </c>
     </row>
   </sheetData>

--- a/test planning/Test Planning ClearTrip Search Page_Aradhana_Shinde.xlsx
+++ b/test planning/Test Planning ClearTrip Search Page_Aradhana_Shinde.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P1345360\eclipse-workspace\ClearTrip\test planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2AAE4D-29D2-424A-8533-87E31F0057F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA66919-A011-45C0-A4D6-A0846C9E1617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{BC35887B-994E-4CD8-BA69-E01669A120EF}"/>
   </bookViews>
@@ -8224,8 +8224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5957FD19-0940-4B12-8A7E-9D3742BE6794}">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/test planning/Test Planning ClearTrip Search Page_Aradhana_Shinde.xlsx
+++ b/test planning/Test Planning ClearTrip Search Page_Aradhana_Shinde.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P1345360\eclipse-workspace\ClearTrip\test planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA66919-A011-45C0-A4D6-A0846C9E1617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA3E6D7-AF46-419D-97FA-BD83B5023601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{BC35887B-994E-4CD8-BA69-E01669A120EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BC35887B-994E-4CD8-BA69-E01669A120EF}"/>
   </bookViews>
   <sheets>
     <sheet name="ClearTrip Search Page" sheetId="1" r:id="rId1"/>
@@ -5113,8 +5113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C207C4-DB37-4220-A418-32150AB8574C}">
   <dimension ref="A1:X97"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8224,7 +8224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5957FD19-0940-4B12-8A7E-9D3742BE6794}">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>

--- a/test planning/Test Planning ClearTrip Search Page_Aradhana_Shinde.xlsx
+++ b/test planning/Test Planning ClearTrip Search Page_Aradhana_Shinde.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P1345360\eclipse-workspace\ClearTrip\test planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA3E6D7-AF46-419D-97FA-BD83B5023601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADFC6DC-6A94-4AB8-BFF0-92262F4EA652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BC35887B-994E-4CD8-BA69-E01669A120EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{BC35887B-994E-4CD8-BA69-E01669A120EF}"/>
   </bookViews>
   <sheets>
     <sheet name="ClearTrip Search Page" sheetId="1" r:id="rId1"/>
     <sheet name="ClearTrip Search Result Page" sheetId="2" r:id="rId2"/>
     <sheet name="View Details Page" sheetId="3" r:id="rId3"/>
+    <sheet name="AirtelHomePage" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ClearTrip Search Page'!$A$1:$W$1</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="641">
   <si>
     <t>S/n</t>
   </si>
@@ -5113,7 +5114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C207C4-DB37-4220-A418-32150AB8574C}">
   <dimension ref="A1:X97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
@@ -8224,8 +8225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5957FD19-0940-4B12-8A7E-9D3742BE6794}">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9259,4 +9260,103 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6F1EB7-1705-4FB7-B36F-E7D4CE96A68A}">
+  <dimension ref="A1:X1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test planning/Test Planning ClearTrip Search Page_Aradhana_Shinde.xlsx
+++ b/test planning/Test Planning ClearTrip Search Page_Aradhana_Shinde.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P1345360\eclipse-workspace\ClearTrip\test planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADFC6DC-6A94-4AB8-BFF0-92262F4EA652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0649875-3852-4DC2-B7B3-A892E688A654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{BC35887B-994E-4CD8-BA69-E01669A120EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{BC35887B-994E-4CD8-BA69-E01669A120EF}"/>
   </bookViews>
   <sheets>
     <sheet name="ClearTrip Search Page" sheetId="1" r:id="rId1"/>
     <sheet name="ClearTrip Search Result Page" sheetId="2" r:id="rId2"/>
     <sheet name="View Details Page" sheetId="3" r:id="rId3"/>
     <sheet name="AirtelHomePage" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ClearTrip Search Page'!$A$1:$W$1</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="688">
   <si>
     <t>S/n</t>
   </si>
@@ -2478,6 +2479,229 @@
   </si>
   <si>
     <t xml:space="preserve"> The "See all amenities " link should be active</t>
+  </si>
+  <si>
+    <t>Test Method Name</t>
+  </si>
+  <si>
+    <t>searchpage</t>
+  </si>
+  <si>
+    <t>Verify Search Button  submits the data and navigates to next page</t>
+  </si>
+  <si>
+    <t>searchpageaddroom</t>
+  </si>
+  <si>
+    <t>Verify the user should be able to increment  the adult and decrement the adult count</t>
+  </si>
+  <si>
+    <t>1.Navigate to URL.
+2.Enter the locality.
+3.Checkin date.
+4.Checkout date.
+5.Add number of Adults.
+6.Add number of children.
+7.Click on "Search Hotels button".</t>
+  </si>
+  <si>
+    <t>1.Navigate to URL.
+2.Enter the locality.
+3.Checkin date.
+4.Checkout date.
+5.Add number of Adults.
+6.Add number of children.
+7.Add rooms if required.
+8.Click on "Search Hotels Button".</t>
+  </si>
+  <si>
+    <t>searchpagecalender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the calender is working for checkin and checkout. </t>
+  </si>
+  <si>
+    <t>searchpagecreateuser</t>
+  </si>
+  <si>
+    <t>Verify new user can be created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to URL.
+2.Click on Signup
+3.Enter in the textbox.
+4.
+</t>
+  </si>
+  <si>
+    <t>searchpagewithassertion</t>
+  </si>
+  <si>
+    <t>Validate the calender for checkin and checkout is selecting expected dates.</t>
+  </si>
+  <si>
+    <t>searchpageenterloc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter location in placeholder </t>
+  </si>
+  <si>
+    <t>1.Url :https://www.cleartrip.com/hotels
+2.Chennai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Url :https://www.cleartrip.com/hotels
+2.Chennai
+3.Checkin : 26 July 2022
+3.Checkout :28 July
+4:Adults: 2
+5.Children: 2 </t>
+  </si>
+  <si>
+    <t>Enter invalid location in placeholder.</t>
+  </si>
+  <si>
+    <t>searchpageinvalidloc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Url :https://www.cleartrip.com/hotels
+2.
+3.Checkin : 26 July 2022
+3.Checkout :28 July
+4:Adults: 2
+5.Children: 2 </t>
+  </si>
+  <si>
+    <t>searchpageresetpasslink</t>
+  </si>
+  <si>
+    <t>Verify the reset password link is working</t>
+  </si>
+  <si>
+    <t>1.Click on email textbox.
+2.Enter email.
+3.Click on forget password link.
+4.enter email .
+5.Click on reset button.</t>
+  </si>
+  <si>
+    <t>1.email: aradhana123@gmail.com</t>
+  </si>
+  <si>
+    <t>searchpageentireflow</t>
+  </si>
+  <si>
+    <t>Verfiy in all the fields data can be entered and data is submitted and navigated to next page</t>
+  </si>
+  <si>
+    <t>searchpagetravellerbox</t>
+  </si>
+  <si>
+    <t>Verify the travellers box is clickable</t>
+  </si>
+  <si>
+    <t>Select 2 room and 4 adult from the dropdown</t>
+  </si>
+  <si>
+    <t>searchpageselectadultroom</t>
+  </si>
+  <si>
+    <t>1.Navigate to URL.
+2.Enter the locality.
+3.Checkin date.
+4.Checkout date.
+5.Select 2 Rooms and 4 adults
+6.Click on  "Search Hotel " button</t>
+  </si>
+  <si>
+    <t>1.Url :https://www.cleartrip.com/hotels
+2.Chennai
+3.Checkin : 26 July 2022
+3.Checkout :28 July</t>
+  </si>
+  <si>
+    <t>searchpageuiassertion</t>
+  </si>
+  <si>
+    <t>Validate heading</t>
+  </si>
+  <si>
+    <t>1.Navigate to URL.
+2.Enter the locality.
+3.Select 2 Rooms and 4 adults
+4.Click on  "Search Hotel " button</t>
+  </si>
+  <si>
+    <t>barfilter</t>
+  </si>
+  <si>
+    <t>Apply bar filter for hotels</t>
+  </si>
+  <si>
+    <t>1.Navigate to URL.
+2.Enter the locality.
+3.Select 2 Rooms and 4 adults
+4.Click on  "Search Hotel " button
+5.Click on "See more amenities".
+6.Check the bar filter</t>
+  </si>
+  <si>
+    <t>firsthotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Search  Result page.</t>
+  </si>
+  <si>
+    <t>Validate theHotel name and address in Search Page for  with SearchResult page</t>
+  </si>
+  <si>
+    <t>addextraroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment </t>
+  </si>
+  <si>
+    <t>Check the add extra room functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Navigate to URL.
+2.Enter the locality.
+3.Checkin date.
+4.Checkout date.
+5.Add number of Adults.
+6.Add number of children.
+7.Click on "Search Hotels button".
+8.Click on "View Details " button.
+9.Scroll down.
+10.Click on "View Map".
+11.Click on zoom in.
+12.Click on zoom out.
+13.Click on close button for map.
+14.Click on "Book" button.
+15.Scroll down.
+16.Click on continue.
+17.Enter mobile number.
+18.Enter email address.
+19.Click on continue.
+20.Enter title ,first name , last name for room1.
+21.Enter title ,first name , last name for room2
+22.Click on "Continue payment" button.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Url :https://www.cleartrip.com/hotels
+2.Chennai
+3.Checkin : 26 July 2022
+3.Checkout :28 July
+4:Adults: 2
+5.Children: 2 
+6.number = 8485099611
+	7.email= aradhanashinde@gmail.com
+	8.name = Apurva
+	 9.lastname = Shinde
+	 10.secondname = Aparna
+	 11.secondlastname = Shinde
+</t>
   </si>
 </sst>
 </file>
@@ -2915,8 +3139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D09BFAF-F2E2-4DF2-A9B7-089293F5BF76}">
   <dimension ref="A1:X252"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="D54" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5115,7 +5339,7 @@
   <dimension ref="A1:X97"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+      <selection activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8225,7 +8449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5957FD19-0940-4B12-8A7E-9D3742BE6794}">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -9266,8 +9490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6F1EB7-1705-4FB7-B36F-E7D4CE96A68A}">
   <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9358,5 +9582,355 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B257E97-4238-4361-AA20-58D6DB1B65DF}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="C3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>648</v>
+      </c>
+      <c r="C4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" t="s">
+        <v>649</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>650</v>
+      </c>
+      <c r="C5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" t="s">
+        <v>651</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>653</v>
+      </c>
+      <c r="C6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="C7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="C8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="C9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="C10" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="C11" t="s">
+        <v>250</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>669</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>671</v>
+      </c>
+      <c r="C12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>672</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="C13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>675</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="C14" t="s">
+        <v>681</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>680</v>
+      </c>
+      <c r="C15" t="s">
+        <v>681</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="390" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="C16" t="s">
+        <v>684</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>685</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>687</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>